--- a/math_of_number/22060古城隆人20251031.xlsx
+++ b/math_of_number/22060古城隆人20251031.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kojor_fyn5sjo\2025\math_of_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB245F2C-A32C-4D7F-9589-4BC4609F94E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83247C3-A191-4AF7-BA7A-49051AAE3E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{6AFA04B7-C433-472A-9849-FB8D0CD1BDAD}"/>
   </bookViews>
